--- a/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>新老品牌</t>
   </si>
   <si>
-    <t>2018年1月2号</t>
+    <t>1月2号</t>
   </si>
   <si>
     <t>Saas</t>
@@ -148,7 +148,7 @@
     <t>店长</t>
   </si>
   <si>
-    <t>2018年1月4号</t>
+    <t>1月4号</t>
   </si>
   <si>
     <t>宁信美食联盟</t>
@@ -254,8 +254,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2185,8 +2185,8 @@
   <sheetPr/>
   <dimension ref="A1:O294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7345,8 +7345,8 @@
   <sheetPr/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -172,13 +172,7 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>2017年12月18</t>
-  </si>
-  <si>
-    <t>以实施，但商户未开业</t>
-  </si>
-  <si>
-    <t>2017年12月23</t>
+    <t>已实施，但商户未开业</t>
   </si>
   <si>
     <t>辣么美新概念麻辣烫</t>
@@ -205,16 +199,10 @@
     <t>12月</t>
   </si>
   <si>
-    <t>2017年12月15号</t>
-  </si>
-  <si>
     <t>南京市建邺区江东门西街3-11/鲜儿牛</t>
   </si>
   <si>
     <t>因成都分公司南京项目需要技术支持</t>
-  </si>
-  <si>
-    <t>2017年12月22号</t>
   </si>
   <si>
     <t>南京市栖霞区学衡路16号/美美翰尼炸鸡店</t>
@@ -223,22 +211,13 @@
     <t>美美翰尼炸鸡店实施</t>
   </si>
   <si>
-    <t>2017年12月30号</t>
-  </si>
-  <si>
     <t>公司</t>
   </si>
   <si>
     <t>值班</t>
   </si>
   <si>
-    <t>2017年12月31号</t>
-  </si>
-  <si>
     <t>1月</t>
-  </si>
-  <si>
-    <t>2018年1月1号</t>
   </si>
   <si>
     <t>南京市建邺区燕山路79-6/一台戏</t>
@@ -251,11 +230,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -286,6 +266,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -294,12 +280,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -327,15 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,44 +318,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,15 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -418,38 +343,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,6 +360,91 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,49 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,55 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,12 +585,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -842,19 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1087,17 +1054,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,17 +1108,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,39 +1151,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1192,10 +1159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,143 +1171,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1350,6 +1320,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1377,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1389,15 +1362,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1407,21 +1380,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1443,115 +1413,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1881,291 +1851,291 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
-    <col min="11" max="11" width="16" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="16" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="45">
         <v>12</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="46">
         <v>52</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="47">
         <v>1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="48">
         <v>0</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="48">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48">
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="64">
         <v>0</v>
       </c>
-      <c r="J3" s="64" t="e">
+      <c r="J3" s="65" t="e">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="66">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="67">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="68">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="44">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="47">
         <v>5</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="48">
         <v>3</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48">
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="64">
         <v>0</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="66">
         <v>5</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="67">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="68">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="A5" s="51"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48">
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64" t="e">
+      <c r="I5" s="64"/>
+      <c r="J5" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="67" t="e">
+      <c r="M5" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47">
+      <c r="A6" s="51"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64" t="e">
+      <c r="I6" s="64"/>
+      <c r="J6" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="67" t="e">
+      <c r="M6" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="50"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
+      <c r="A7" s="51"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48">
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="e">
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="67" t="e">
+      <c r="M7" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="54">
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69" t="e">
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="72" t="e">
+      <c r="M8" s="73" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2205,58 +2175,58 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2300,8 +2270,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2345,8 +2315,8 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7343,546 +7313,518 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="13"/>
+    <col min="1" max="1" width="8.625" style="15"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>51</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16">
+        <v>43452</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="9">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="16">
+        <v>43457</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16">
+        <v>43463</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="14">
-        <v>43098</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="24"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="14">
-        <v>43102</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="24"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="22"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="22"/>
-      <c r="D9" s="25"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="22"/>
-      <c r="D10" s="25"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="22"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="22"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="22"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="21"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:7">
+      <c r="A21" s="10"/>
+      <c r="B21" s="24"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="21"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="24"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="22"/>
-      <c r="D23" s="21"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="22"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="24"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="22"/>
-      <c r="D25" s="25"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="24"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="22"/>
-      <c r="D26" s="25"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="22"/>
-      <c r="D27" s="25"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9"/>
+      <c r="B27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="22"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="22"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="22"/>
-      <c r="D31" s="21"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="24"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="22"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="24"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="22"/>
-      <c r="D33" s="21"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="10"/>
+      <c r="B33" s="24"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="22"/>
-      <c r="D34" s="21"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="9"/>
+      <c r="B34" s="24"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="22"/>
-      <c r="D35" s="21"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="9"/>
+      <c r="B35" s="24"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="27"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="8"/>
-      <c r="B36" s="22"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="24"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="7"/>
-      <c r="B37" s="22"/>
-      <c r="D37" s="25"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9"/>
+      <c r="B37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="22"/>
-      <c r="D38" s="25"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9"/>
+      <c r="B38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="28"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="22"/>
-      <c r="D39" s="25"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="9"/>
+      <c r="B39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7"/>
-      <c r="B40" s="22"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="24"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="22"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="22"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="24"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="27"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="22"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="24"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="27"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="22"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="24"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="22"/>
-      <c r="D45" s="21"/>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:7">
+      <c r="A45" s="9"/>
+      <c r="B45" s="24"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" s="22"/>
-      <c r="D46" s="21"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:7">
+      <c r="A46" s="9"/>
+      <c r="B46" s="24"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="12"/>
-      <c r="B47" s="22"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="24"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="22"/>
-      <c r="D48" s="25"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9"/>
+      <c r="B48" s="24"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="7"/>
-      <c r="B49" s="22"/>
-      <c r="D49" s="25"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="9"/>
+      <c r="B49" s="24"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="7"/>
-      <c r="B50" s="22"/>
-      <c r="D50" s="21"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="24"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="27"/>
+      <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="7"/>
-      <c r="B51" s="22"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="24"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="27"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="7"/>
-      <c r="B52" s="22"/>
-      <c r="D52" s="21"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="24"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="27"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="7"/>
-      <c r="B53" s="22"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="24"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="27"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="22"/>
-      <c r="D54" s="21"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="24"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="27"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="7"/>
-      <c r="B55" s="22"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="27"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" s="22"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="27"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="12"/>
-      <c r="B57" s="22"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="27"/>
+      <c r="G54" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="5">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="A45:A54"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E8 E9:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4:E5 E6:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F2:F3 F6:F8 F9:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2 F3 F4:F5 F6:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7897,133 +7839,133 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43449</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11">
+        <v>43456</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11">
+        <v>43464</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="11">
+        <v>43465</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C6" s="11">
+        <v>43101</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>2017年12月18</t>
   </si>
   <si>
-    <t>以实施，但商户未开业</t>
+    <t>已实施，但商户未开业</t>
   </si>
   <si>
     <t>2017年12月23</t>
@@ -253,9 +253,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -286,6 +286,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -294,12 +300,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -326,13 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -356,44 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -412,9 +367,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,13 +390,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -449,7 +397,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,7 +464,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,25 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,67 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,8 +669,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -833,19 +833,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1143,17 +1130,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1184,6 +1160,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1192,10 +1179,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,137 +1191,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,21 +1394,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1443,115 +1427,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1889,283 +1873,283 @@
     <col min="7" max="7" width="15.5083333333333" style="13" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="13" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="43">
         <v>12</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>52</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="62">
         <v>0</v>
       </c>
-      <c r="J3" s="64" t="e">
+      <c r="J3" s="63" t="e">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="64">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="65">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="66">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="44">
+      <c r="A4" s="43">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>1</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>5</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>3</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <v>0</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="64">
         <v>5</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="65">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="66">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="A5" s="49"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64" t="e">
+      <c r="I5" s="62"/>
+      <c r="J5" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="67" t="e">
+      <c r="M5" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47">
+      <c r="A6" s="49"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48">
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64" t="e">
+      <c r="I6" s="62"/>
+      <c r="J6" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="67" t="e">
+      <c r="M6" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="50"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
+      <c r="A7" s="49"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48">
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="e">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="67" t="e">
+      <c r="M7" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="54">
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69" t="e">
+      <c r="I8" s="67"/>
+      <c r="J8" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="72" t="e">
+      <c r="M8" s="71" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2185,8 +2169,8 @@
   <sheetPr/>
   <dimension ref="A1:O294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2205,50 +2189,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="28" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2256,7 +2240,7 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2301,7 +2285,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2346,7 +2330,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="12"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7343,10 +7327,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7401,95 +7385,93 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="7">
+        <v>52</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7">
-        <v>52</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43098</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="14">
-        <v>43098</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="22"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
-      <c r="B7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="14">
-        <v>43102</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="B7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="22"/>
       <c r="D8" s="21"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
       <c r="B9" s="22"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:7">
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="22"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="7"/>
@@ -7509,7 +7491,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="1"/>
       <c r="D13" s="21"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7517,7 +7499,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="1"/>
       <c r="D14" s="21"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7525,7 +7507,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="1"/>
       <c r="D15" s="21"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7533,7 +7515,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="1"/>
       <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7557,75 +7539,75 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="22"/>
       <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="21"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="22"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="8"/>
       <c r="B23" s="22"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="8"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
       <c r="B24" s="22"/>
-      <c r="D24" s="25"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="22"/>
-      <c r="D25" s="25"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:7">
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="B26" s="22"/>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:7">
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="B27" s="22"/>
-      <c r="D27" s="25"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7"/>
@@ -7659,69 +7641,69 @@
       <c r="F31" s="1"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" ht="14.25" spans="1:7">
       <c r="A32" s="7"/>
       <c r="B32" s="22"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="22"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="12"/>
       <c r="B34" s="22"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="8"/>
       <c r="B35" s="22"/>
-      <c r="D35" s="21"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="8"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7"/>
       <c r="B36" s="22"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="7"/>
       <c r="B37" s="22"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:7">
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="7"/>
       <c r="B38" s="22"/>
-      <c r="D38" s="25"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="28"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:7">
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="7"/>
       <c r="B39" s="22"/>
-      <c r="D39" s="25"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="7"/>
@@ -7755,24 +7737,24 @@
       <c r="F43" s="1"/>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" ht="14.25" spans="1:7">
       <c r="A44" s="7"/>
       <c r="B44" s="22"/>
-      <c r="D44" s="21"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:7">
       <c r="A45" s="7"/>
       <c r="B45" s="22"/>
-      <c r="D45" s="21"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="22"/>
       <c r="D46" s="21"/>
       <c r="E46" s="1"/>
@@ -7780,28 +7762,28 @@
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="12"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="22"/>
       <c r="D47" s="21"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="27"/>
     </row>
-    <row r="48" ht="14.25" spans="1:7">
+    <row r="48" spans="1:7">
       <c r="A48" s="7"/>
       <c r="B48" s="22"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:7">
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="7"/>
       <c r="B49" s="22"/>
-      <c r="D49" s="25"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7"/>
@@ -7835,54 +7817,30 @@
       <c r="F53" s="1"/>
       <c r="G53" s="27"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:1">
       <c r="A54" s="7"/>
-      <c r="B54" s="22"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="27"/>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="7"/>
-      <c r="B55" s="22"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="27"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" s="22"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="27"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="12"/>
-      <c r="B57" s="22"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="27"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="A48:A57"/>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A47:A56"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E8 E9:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4:E5 E6:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F2:F3 F6:F8 F9:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2 F3 F4:F5 F6:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>

--- a/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
+++ b/周数据/2018年第01周/《个人上线率统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -148,15 +148,6 @@
     <t>店长</t>
   </si>
   <si>
-    <t>1月4号</t>
-  </si>
-  <si>
-    <t>宁信美食联盟</t>
-  </si>
-  <si>
-    <t>孔总</t>
-  </si>
-  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -170,6 +161,9 @@
   </si>
   <si>
     <t>销售人员</t>
+  </si>
+  <si>
+    <t>宁信美食联盟</t>
   </si>
   <si>
     <t>已实施，但商户未开业</t>
@@ -231,11 +225,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -307,7 +301,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +320,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,6 +376,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -343,8 +392,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,91 +439,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,13 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +555,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,43 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,32 +1048,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,35 +1087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,6 +1112,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1159,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,133 +1165,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1845,8 +1839,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1977,11 +1971,11 @@
         <v>5</v>
       </c>
       <c r="D4" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="48">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="50"/>
@@ -2000,12 +1994,11 @@
         <v>5</v>
       </c>
       <c r="L4" s="67">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="68">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2156,7 +2149,7 @@
   <dimension ref="A1:O294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2316,48 +2309,20 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14"/>
-      <c r="B4" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1">
-        <v>76112895</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15189553449</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1">
-        <v>15077880787</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
@@ -7338,19 +7303,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7358,13 +7323,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="16">
         <v>43452</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7381,7 +7346,7 @@
         <v>43457</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7392,13 +7357,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="16">
         <v>43463</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7407,13 +7372,13 @@
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="9"/>
       <c r="B5" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="16">
         <v>43102</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7839,7 +7804,7 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7857,21 +7822,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>34</v>
@@ -7880,10 +7845,10 @@
         <v>43449</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7893,10 +7858,10 @@
         <v>43456</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7906,10 +7871,10 @@
         <v>43464</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7919,15 +7884,15 @@
         <v>43465</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>34</v>
@@ -7936,10 +7901,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:5">
